--- a/mission_chart.xlsx
+++ b/mission_chart.xlsx
@@ -15,6 +15,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="171027"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -675,8 +676,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="B58" sqref="B58"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -723,7 +724,7 @@
         <v>7</v>
       </c>
       <c r="B5" s="1">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="C5" s="4">
         <v>60</v>
@@ -737,7 +738,7 @@
         <v>2</v>
       </c>
       <c r="C6" s="4">
-        <v>100</v>
+        <v>150</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -770,7 +771,7 @@
         <v>2</v>
       </c>
       <c r="C9" s="3">
-        <v>100</v>
+        <v>150</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -816,7 +817,7 @@
     <row r="14" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C14" s="6">
         <f>SUM(C5:C11)</f>
-        <v>500</v>
+        <v>600</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -856,7 +857,7 @@
         <v>2</v>
       </c>
       <c r="C18" s="4">
-        <v>100</v>
+        <v>150</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -915,7 +916,7 @@
     <row r="24" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C24" s="6">
         <f>SUM(C16:C22)</f>
-        <v>500</v>
+        <v>550</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -952,7 +953,7 @@
         <v>25</v>
       </c>
       <c r="B28" s="1">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="C28" s="4">
         <v>50</v>
@@ -1040,7 +1041,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="1">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="C37" s="4">
         <v>50</v>

--- a/mission_chart.xlsx
+++ b/mission_chart.xlsx
@@ -15,7 +15,6 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="171027"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -676,8 +675,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="B37" sqref="B37"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="D72" sqref="D72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1412,11 +1411,14 @@
       <c r="B73" t="s">
         <v>13</v>
       </c>
+      <c r="C73" s="3">
+        <v>50</v>
+      </c>
     </row>
     <row r="74" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C74" s="6">
-        <f>SUM(C65:C72)</f>
-        <v>475</v>
+        <f>SUM(C65:C73)</f>
+        <v>525</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
